--- a/commodity.xlsx
+++ b/commodity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\minihabits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF7D56F-6509-4446-A3AA-1B53CE220219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70ECEF3-EA9B-4516-BAEE-9F9CC1E5A9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5808" yWindow="1812" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>Shoes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>强风2.0Pro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,26 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>强风2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞影PB3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞影PB4.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞影Plaid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一体成型二代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>360X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,31 +67,521 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绝尘3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芷境2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝尘2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>揽途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>匹克</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>骋风</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>乔丹</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>强风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.0Pro</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>强风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>飞影</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PB3.0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>飞影</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PB4.0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>飞影</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Plaid</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>幻影</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>特步</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>一体成型二代</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>鸿星尔克</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>绝尘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>芷境</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>绝尘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>揽途</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>匹克</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>骋风</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>361°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脚面弯折处</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左脚大拇指</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赤焰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吾适5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S lite 2.0 V2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次呼吸态极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞燃2.5ET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞羚2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极风2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>态极</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>X7</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>态极</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>态极5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赤兔7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pro</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赤兔7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超轻21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必迈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bmai</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安踏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚瑟士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索康尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布鲁克斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美津浓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,9 +590,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +606,32 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,9 +654,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -445,282 +948,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:D29"/>
+  <dimension ref="A3:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>361</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45576</v>
+      </c>
+      <c r="D11" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45576</v>
+      </c>
+      <c r="D12" s="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45576</v>
+      </c>
+      <c r="D13" s="1">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45576</v>
+      </c>
+      <c r="D14" s="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45576</v>
+      </c>
+      <c r="D15" s="1">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45576</v>
+      </c>
+      <c r="D16" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45576</v>
+      </c>
+      <c r="D18" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="C19" s="2">
         <v>45576</v>
       </c>
-      <c r="D6">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D19" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C20" s="2">
         <v>45576</v>
       </c>
-      <c r="D7">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="D20" s="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2">
         <v>45576</v>
       </c>
-      <c r="D8">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="D22" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2">
         <v>45576</v>
       </c>
-      <c r="D9">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="D23" s="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
         <v>45576</v>
       </c>
-      <c r="D10">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D24" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1">
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2">
         <v>45576</v>
       </c>
-      <c r="D11">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="D25" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2">
         <v>45576</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45576</v>
-      </c>
-      <c r="D14">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45576</v>
-      </c>
-      <c r="D15">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45576</v>
-      </c>
-      <c r="D16">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45576</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>45576</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1">
-        <v>45576</v>
-      </c>
-      <c r="D20">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45576</v>
-      </c>
-      <c r="D21">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1">
-        <v>45576</v>
-      </c>
-      <c r="D22">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1">
-        <v>45576</v>
-      </c>
-      <c r="D23">
+      <c r="D27" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1">
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="1">
-        <v>45576</v>
-      </c>
-      <c r="D26">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
-        <v>45576</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="1">
-        <v>45576</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
-        <v>45576</v>
+    <row r="31" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="1">
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/commodity.xlsx
+++ b/commodity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\minihabits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70ECEF3-EA9B-4516-BAEE-9F9CC1E5A9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEF11C9-78EE-42B1-B7BF-C0E2CE219768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
   <si>
     <t>Shoes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,6 +582,296 @@
   </si>
   <si>
     <t>美津浓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国外次顶缓跑鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pegasus 41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adidas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supernova Rise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brooks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saucony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cumulus 26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>860 v14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mizuno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave Rider 27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave Sky 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14 Pro </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特别版</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 + 1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 Ultra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16+512G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 Ultra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huawei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pura 70 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12+512G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 60 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pura 70 Pro+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave Rider 28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave Sky 8</t>
+  </si>
+  <si>
+    <t>1080 v13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>880 v14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">驭途 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ride 17</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">必迈 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bmai</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远征者 5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cumulus 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东自营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>淘宝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>旗舰店</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>348</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、无货</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>404</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、474</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>721</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、701</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +882,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +923,20 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -654,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -666,6 +970,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -948,74 +1256,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:D41"/>
+  <dimension ref="A3:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="24.77734375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>361</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -1023,348 +1332,764 @@
         <v>50</v>
       </c>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>45576</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>45576</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>45576</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>45576</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>45576</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>587</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>45576</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>45576</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>45576</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>45576</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>45576</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>45576</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>442</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>45576</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>45576</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>45576</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1">
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1">
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1">
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1">
+      <c r="C30" s="4"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1">
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1">
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1">
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1">
+      <c r="C32" s="3"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1">
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1">
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1">
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="1">
+      <c r="D35" s="2"/>
+      <c r="E35" s="1">
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="1">
+      <c r="C36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1">
         <v>373</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="1">
+      <c r="C38" s="4"/>
+      <c r="E38" s="1">
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="1">
+      <c r="C39" s="4"/>
+      <c r="E39" s="1">
         <v>354</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="1">
+      <c r="C40" s="4"/>
+      <c r="E40" s="1">
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="1">
+      <c r="C41" s="3"/>
+      <c r="E41" s="1">
         <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="1">
+        <v>41</v>
+      </c>
+      <c r="D45" s="1">
+        <v>375</v>
+      </c>
+      <c r="E45" s="1">
+        <v>374</v>
+      </c>
+      <c r="F45" s="1">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="1">
+        <v>41</v>
+      </c>
+      <c r="D46" s="1">
+        <v>438</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="1">
+        <v>41</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="1">
+        <v>424</v>
+      </c>
+      <c r="F47" s="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="1">
+        <v>41</v>
+      </c>
+      <c r="D48" s="1">
+        <v>504</v>
+      </c>
+      <c r="E48" s="1">
+        <v>544</v>
+      </c>
+      <c r="F48" s="1">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="4">
+        <v>42</v>
+      </c>
+      <c r="D50" s="1">
+        <v>521</v>
+      </c>
+      <c r="E50" s="1">
+        <v>564</v>
+      </c>
+      <c r="F50" s="1">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="1">
+        <v>42</v>
+      </c>
+      <c r="D52" s="1">
+        <v>591</v>
+      </c>
+      <c r="F52" s="1">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="1">
+        <v>42</v>
+      </c>
+      <c r="D53" s="1">
+        <v>492</v>
+      </c>
+      <c r="E53" s="1">
+        <v>492</v>
+      </c>
+      <c r="F53" s="1">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="1">
+        <v>42</v>
+      </c>
+      <c r="D54" s="1">
+        <v>689</v>
+      </c>
+      <c r="E54" s="1">
+        <v>689</v>
+      </c>
+      <c r="F54" s="1">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="1">
+        <v>42</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="1">
+        <v>705</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="1">
+        <v>42</v>
+      </c>
+      <c r="D57" s="1">
+        <v>602</v>
+      </c>
+      <c r="E57" s="1">
+        <v>527</v>
+      </c>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="3">
+        <v>42</v>
+      </c>
+      <c r="D59" s="1">
+        <v>335</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="1">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F64" s="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="1">
+        <v>809</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="1">
+        <v>839</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A68" s="4"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A69" s="4"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="72" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" s="1">
+        <v>5072</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" s="1">
+        <v>6226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" s="1">
+        <v>4775</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78" s="1">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" s="1">
+        <v>6399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" s="1">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>12</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" s="1">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" s="1">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="1">
+        <v>5173</v>
       </c>
     </row>
   </sheetData>
